--- a/www/IndicatorsPerCountry/ElSalvador_GDPperCapita_TerritorialRef_1946_2012_CCode_222.xlsx
+++ b/www/IndicatorsPerCountry/ElSalvador_GDPperCapita_TerritorialRef_1946_2012_CCode_222.xlsx
@@ -327,13 +327,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/ElSalvador_GDPperCapita_TerritorialRef_1946_2012_CCode_222.xlsx
+++ b/www/IndicatorsPerCountry/ElSalvador_GDPperCapita_TerritorialRef_1946_2012_CCode_222.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="115">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,268 +36,292 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>932</t>
-  </si>
-  <si>
-    <t>919</t>
-  </si>
-  <si>
-    <t>950</t>
-  </si>
-  <si>
-    <t>974</t>
-  </si>
-  <si>
-    <t>1017</t>
-  </si>
-  <si>
-    <t>925</t>
-  </si>
-  <si>
-    <t>1069</t>
-  </si>
-  <si>
-    <t>926</t>
-  </si>
-  <si>
-    <t>1055</t>
-  </si>
-  <si>
-    <t>1041</t>
-  </si>
-  <si>
-    <t>1045</t>
-  </si>
-  <si>
-    <t>924</t>
-  </si>
-  <si>
-    <t>823</t>
-  </si>
-  <si>
-    <t>922</t>
-  </si>
-  <si>
-    <t>940</t>
-  </si>
-  <si>
-    <t>1021</t>
-  </si>
-  <si>
-    <t>985</t>
-  </si>
-  <si>
-    <t>1065</t>
-  </si>
-  <si>
-    <t>977</t>
-  </si>
-  <si>
-    <t>1035</t>
-  </si>
-  <si>
-    <t>1111</t>
-  </si>
-  <si>
-    <t>1074</t>
-  </si>
-  <si>
-    <t>1146</t>
-  </si>
-  <si>
-    <t>1235</t>
-  </si>
-  <si>
-    <t>1151</t>
-  </si>
-  <si>
-    <t>1091</t>
-  </si>
-  <si>
-    <t>1095</t>
-  </si>
-  <si>
-    <t>1362</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1525</t>
-  </si>
-  <si>
-    <t>1489</t>
-  </si>
-  <si>
-    <t>1480</t>
-  </si>
-  <si>
-    <t>1550</t>
-  </si>
-  <si>
-    <t>1616</t>
-  </si>
-  <si>
-    <t>1589</t>
-  </si>
-  <si>
-    <t>1624</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1740</t>
-  </si>
-  <si>
-    <t>1725</t>
-  </si>
-  <si>
-    <t>1748</t>
-  </si>
-  <si>
-    <t>1764</t>
-  </si>
-  <si>
-    <t>1769</t>
-  </si>
-  <si>
-    <t>1920</t>
-  </si>
-  <si>
-    <t>1941</t>
-  </si>
-  <si>
-    <t>2058</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2172</t>
-  </si>
-  <si>
-    <t>2216</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2187</t>
-  </si>
-  <si>
-    <t>2222</t>
-  </si>
-  <si>
-    <t>2298</t>
-  </si>
-  <si>
-    <t>2342</t>
-  </si>
-  <si>
-    <t>2436</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2532</t>
-  </si>
-  <si>
-    <t>2613</t>
+    <t>1487</t>
+  </si>
+  <si>
+    <t>1466</t>
+  </si>
+  <si>
+    <t>1516</t>
+  </si>
+  <si>
+    <t>1554</t>
+  </si>
+  <si>
+    <t>1623</t>
+  </si>
+  <si>
+    <t>1476</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1478</t>
+  </si>
+  <si>
+    <t>1682</t>
+  </si>
+  <si>
+    <t>1661</t>
+  </si>
+  <si>
+    <t>1667</t>
+  </si>
+  <si>
+    <t>1474</t>
+  </si>
+  <si>
+    <t>1313</t>
+  </si>
+  <si>
+    <t>1471</t>
+  </si>
+  <si>
+    <t>1498</t>
+  </si>
+  <si>
+    <t>1629</t>
+  </si>
+  <si>
+    <t>1572</t>
+  </si>
+  <si>
+    <t>1699</t>
+  </si>
+  <si>
+    <t>1559</t>
+  </si>
+  <si>
+    <t>1651</t>
+  </si>
+  <si>
+    <t>1773</t>
+  </si>
+  <si>
+    <t>1714</t>
+  </si>
+  <si>
+    <t>1828</t>
+  </si>
+  <si>
+    <t>1970</t>
+  </si>
+  <si>
+    <t>1836</t>
+  </si>
+  <si>
+    <t>1741</t>
+  </si>
+  <si>
+    <t>1747</t>
+  </si>
+  <si>
+    <t>2173</t>
+  </si>
+  <si>
+    <t>2723</t>
+  </si>
+  <si>
+    <t>2432</t>
+  </si>
+  <si>
+    <t>2375</t>
+  </si>
+  <si>
+    <t>2361</t>
+  </si>
+  <si>
+    <t>2472</t>
+  </si>
+  <si>
+    <t>2577</t>
+  </si>
+  <si>
+    <t>2536</t>
+  </si>
+  <si>
+    <t>2590</t>
   </si>
   <si>
     <t>2715</t>
   </si>
   <si>
-    <t>2605</t>
-  </si>
-  <si>
-    <t>2354</t>
-  </si>
-  <si>
-    <t>2186</t>
-  </si>
-  <si>
-    <t>2084</t>
-  </si>
-  <si>
-    <t>2076</t>
-  </si>
-  <si>
-    <t>2091</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2089</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2092</t>
-  </si>
-  <si>
-    <t>2119</t>
-  </si>
-  <si>
-    <t>2142</t>
-  </si>
-  <si>
-    <t>2259</t>
-  </si>
-  <si>
-    <t>2362</t>
-  </si>
-  <si>
-    <t>2459</t>
-  </si>
-  <si>
-    <t>2563</t>
-  </si>
-  <si>
-    <t>2561</t>
-  </si>
-  <si>
-    <t>2620</t>
-  </si>
-  <si>
-    <t>2668</t>
-  </si>
-  <si>
-    <t>2706</t>
-  </si>
-  <si>
-    <t>2714</t>
-  </si>
-  <si>
-    <t>2709</t>
-  </si>
-  <si>
-    <t>2719</t>
-  </si>
-  <si>
-    <t>2731</t>
-  </si>
-  <si>
-    <t>2733</t>
-  </si>
-  <si>
-    <t>2768</t>
-  </si>
-  <si>
-    <t>2835</t>
-  </si>
-  <si>
-    <t>2917</t>
-  </si>
-  <si>
-    <t>2940</t>
+    <t>2775</t>
+  </si>
+  <si>
+    <t>2751</t>
+  </si>
+  <si>
+    <t>2788</t>
+  </si>
+  <si>
+    <t>2813</t>
+  </si>
+  <si>
+    <t>2821</t>
+  </si>
+  <si>
+    <t>3062</t>
+  </si>
+  <si>
+    <t>3096</t>
+  </si>
+  <si>
+    <t>3282</t>
+  </si>
+  <si>
+    <t>3351</t>
+  </si>
+  <si>
+    <t>3464</t>
+  </si>
+  <si>
+    <t>3534</t>
+  </si>
+  <si>
+    <t>3524</t>
+  </si>
+  <si>
+    <t>3520</t>
+  </si>
+  <si>
+    <t>3488</t>
+  </si>
+  <si>
+    <t>3553</t>
+  </si>
+  <si>
+    <t>3668</t>
+  </si>
+  <si>
+    <t>3767</t>
+  </si>
+  <si>
+    <t>3912</t>
+  </si>
+  <si>
+    <t>4030</t>
+  </si>
+  <si>
+    <t>4084</t>
+  </si>
+  <si>
+    <t>4221</t>
+  </si>
+  <si>
+    <t>4375</t>
+  </si>
+  <si>
+    <t>4194</t>
+  </si>
+  <si>
+    <t>3781</t>
+  </si>
+  <si>
+    <t>3507</t>
+  </si>
+  <si>
+    <t>3339</t>
+  </si>
+  <si>
+    <t>3330</t>
+  </si>
+  <si>
+    <t>3357</t>
+  </si>
+  <si>
+    <t>3366</t>
+  </si>
+  <si>
+    <t>3327</t>
+  </si>
+  <si>
+    <t>3344</t>
+  </si>
+  <si>
+    <t>3322</t>
+  </si>
+  <si>
+    <t>3378</t>
+  </si>
+  <si>
+    <t>3493.57609938296</t>
+  </si>
+  <si>
+    <t>3750.51721814953</t>
+  </si>
+  <si>
+    <t>4052.95777781183</t>
+  </si>
+  <si>
+    <t>4316.39804713577</t>
+  </si>
+  <si>
+    <t>4592.28357203461</t>
+  </si>
+  <si>
+    <t>4671.33901624011</t>
+  </si>
+  <si>
+    <t>4882.68016685898</t>
+  </si>
+  <si>
+    <t>5077.8920578762</t>
+  </si>
+  <si>
+    <t>5263.88675536426</t>
+  </si>
+  <si>
+    <t>5403.7147358137</t>
+  </si>
+  <si>
+    <t>5550.18682788689</t>
+  </si>
+  <si>
+    <t>5751.06066526152</t>
+  </si>
+  <si>
+    <t>5957.20113760036</t>
+  </si>
+  <si>
+    <t>6145.97987183393</t>
+  </si>
+  <si>
+    <t>6441.49581866886</t>
+  </si>
+  <si>
+    <t>6782.23121360351</t>
+  </si>
+  <si>
+    <t>7139.18213958217</t>
+  </si>
+  <si>
+    <t>7312.65583506175</t>
+  </si>
+  <si>
+    <t>7166.15919423682</t>
+  </si>
+  <si>
+    <t>7351.11455771672</t>
+  </si>
+  <si>
+    <t>7607</t>
+  </si>
+  <si>
+    <t>7726</t>
+  </si>
+  <si>
+    <t>7845</t>
+  </si>
+  <si>
+    <t>7935</t>
+  </si>
+  <si>
+    <t>8109</t>
+  </si>
+  <si>
+    <t>8280</t>
   </si>
   <si>
     <t>Description</t>
@@ -1554,7 +1578,7 @@
         <v>1987.0</v>
       </c>
       <c r="E69" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
     </row>
     <row r="70">
@@ -1912,6 +1936,142 @@
       </c>
       <c r="E90" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>222.0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="E91" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>222.0</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="E92" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>222.0</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E93" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>222.0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E94" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>222.0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E95" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>222.0</v>
+      </c>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E96" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>222.0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E97" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>222.0</v>
+      </c>
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E98" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1929,50 +2089,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
